--- a/script/exercises.xlsx
+++ b/script/exercises.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\fizra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7E0397-F32D-4E65-A719-222203479B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD188096-E3DF-4A9C-8B8C-F41505D7BF58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="10140" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1457,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>135</v>

--- a/script/exercises.xlsx
+++ b/script/exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD188096-E3DF-4A9C-8B8C-F41505D7BF58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E664FA-C124-4A4A-A9BA-53A3CE29CC07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10140" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="166">
   <si>
     <t xml:space="preserve">Семенение шага со сменой ног. </t>
   </si>
@@ -454,19 +454,197 @@
   </si>
   <si>
     <t>Игрок бросает мяч вверх–вперед, он должен догнать и выполнить прием снизу после его отскока 30 раз.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Игрок выполняет одну за другой верхние передачи над собой, делая 2 хлопка над головой между передачами. Передача при этом должна быть достаточно высокой (30 раз). </t>
+  </si>
+  <si>
+    <r>
+      <t>И</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>грок выполняет передачи вверх–вперед над собой, обязательно выполняя остановку перед выполнением элемента, т.е. передачи и пружиня коленями под каждый мяч (30раз).</t>
+    </r>
+  </si>
+  <si>
+    <t>И.П. игрок располагается лицом к стене. Бросок в стену теннисных мячей обеими руками одновременно из положения стоя на согнутых пружинящих ногах и ловля их после отскока (30раз).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>И.П. игрок располагается спиной к стене. Бросок в стену теннисных мячей обеими руками за голову одновременно из положения стоя на согнутых пружинящих ногах, поворот на 180</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и ловля их после отскока (30раз).</t>
+    </r>
+  </si>
+  <si>
+    <t>И.П. игрок располагается лицом к стене на полусогнутых пружинящих ногах и выполняет нижнюю передачу в стену теннисным мячом (30раз).</t>
+  </si>
+  <si>
+    <t>Игрок жонглирует двумя теннисными мячами, подкидывая над собой и ловя каждый мяч двумя руками (30раз).</t>
+  </si>
+  <si>
+    <t>Игрок жонглирует двумя теннисными мячами в стену, кидая и ловя каждый мяч двумя руками (30раз).</t>
+  </si>
+  <si>
+    <t>И.П. игрок располагается лицом к стене. Мяч располагается на пальцах кисти вытянутой правой руки на расстоянии 20см. Быстрыми короткими касаниями пальцев руки нужно отбивать мяч в стену(50раз).</t>
+  </si>
+  <si>
+    <t>И.П. игрок располагается лицом к стене. Мяч располагается на пальцах кисти вытянутой левой руки на расстоянии 20см. Быстрыми короткими касаниями пальцев руки нужно отбивать мяч в стену (50раз).</t>
+  </si>
+  <si>
+    <t>И.П. игрок располагается лицом к стене. Мяч располагается на пальцах кистей вытянутых рук на расстоянии 20см. Быстрыми короткими касаниями пальцев рук нужно отбивать мяч в стену(2-3мин.).</t>
+  </si>
+  <si>
+    <t>И.п. игрок располагается стоя лицом к стене на полусогнутых ногах. С началом выполнения верхней передачи в стену игрок начинает плавно садиться, а затем плавно возвращаться в исходное положение (20раз).</t>
+  </si>
+  <si>
+    <t>И.п. игрок располагается стоя лицом к стене на полусогнутых пружинящих ногах. Игрок выполняет 3-4 верхних передачи в стену, затем плавно поворачивается правым боком к стене не прекращая выполнять верхнюю передачу, выполнив 3-4 передачи правым боком игрок возвращается в исходное положение и начинает аналогичный поворот влево (50раз).</t>
+  </si>
+  <si>
+    <t>И.п. игрок располагается стоя лицом к стене на полусогнутых пружинящих ногах. Игрок при выполнении нижней передачи в стену выставляет вперед, то правую, то левую ногу после каждой передачи(50раз).</t>
+  </si>
+  <si>
+    <t>И.п. игрок располагается стоя лицом к стене на полусогнутых пружинящих ногах. Игрок выполняет нижнюю передачу в стену при этом постепенно меняя высоту передачи, от максимально высокой до максимально низкой (50-70раз).</t>
+  </si>
+  <si>
+    <t>И.п. игрок располагается стоя лицом к стене на полусогнутых пружинящих ногах. Игрок выполняет нижнюю передачу в стену при этом постепенно перемещаясь то влево то вправо на 2-3м (50раз).</t>
+  </si>
+  <si>
+    <t>И.п. игрок располагается стоя лицом к стене на полусогнутых пружинящих ногах. После выполнения каждой нижней передачи в стену игрок выполняет приседание с касанием пола одной рукой. Серия без потери мяча 5-7раз. таких серий 5-6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">И.п. игрок располагается стоя спиной к стене на полусогнутых пружинящих ногах. После броска за голову мяча в стену игрок должен совершить поворот на 1800 и совершить прием мяча отскочившего от стены с помощью нижней передачи и отбить этот мяч в стену (30раз). </t>
+  </si>
+  <si>
+    <t>И.п. игрок располагается стоя лицом к стене на полусогнутых пружинящих ногах. Игрок выполняет нижнюю передачу над собой, а затем верхнюю передачу в стену(30раз).</t>
+  </si>
+  <si>
+    <t>И.п. игрок располагается стоя лицом к стене на полусогнутых пружинящих ногах. Игрок выполняет нижнюю передачу над собой, а затем нижнюю передачу в стену(30раз).</t>
+  </si>
+  <si>
+    <t>И.п. игрок располагается стоя лицом к стене на полусогнутых пружинящих ногах. Игрок выполняет нижнюю передачу над собой и не давая опуститься мячу выполняет верхнюю передачу в прыжке в стену(30раз).</t>
+  </si>
+  <si>
+    <t>И.п. игрок располагается стоя лицом к стене на полусогнутых пружинящих ногах. Игрок бросает мяч в стену и отбивает его в стену внутренней боковой поверхностью стопы сначала правой, а потом левой ноги. После одного удара мяч необходимо поймать и заново начать упражнение(30раз).</t>
+  </si>
+  <si>
+    <r>
+      <t>И.п. игрок располагается стоя лицом к стене на полусогнутых пружинящих ногах. Игрок выполняет нижнюю передачу над собой, затем выполняет поворот на 90</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> вправо(влево) и выполняет нижнюю передачу правым(левым)боком в стену, затем выполняет поворот на 90</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и выполняет передачу лицом в стену(30раз).</t>
+    </r>
+  </si>
+  <si>
+    <t>И.п. игрок располагается стоя лицом к стене на полусогнутых пружинящих ногах. Игрок выполняет нижнюю передачу в стену, перенося руки то слева то справа относительно корпуса(40-50раз).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -489,10 +667,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1606,231 +1793,561 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>41</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>42</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>30</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>43</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>44</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>30</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>45</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>30</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>46</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>30</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>47</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>30</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>48</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>49</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>30</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>50</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>51</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>30</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>52</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>30</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>53</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>50</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>54</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>50</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>18</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>55</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>20</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>50</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>21</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>50</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>22</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>50</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>23</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>50</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>24</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>30</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>25</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>30</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>26</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>30</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>27</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>30</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>28</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>30</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>29</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>30</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>30</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>56</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>40</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>32</v>
       </c>
@@ -1838,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>33</v>
       </c>
@@ -1846,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>34</v>
       </c>
@@ -1854,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>35</v>
       </c>
@@ -1862,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>36</v>
       </c>
@@ -1870,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>37</v>
       </c>
@@ -1878,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>38</v>
       </c>
@@ -1886,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>39</v>
       </c>
@@ -1894,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>40</v>
       </c>
@@ -1902,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>41</v>
       </c>
@@ -1910,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>42</v>
       </c>
